--- a/outputs/COVID-19_Trial-1_Stage-1_duplicate-secondary_Decoded_JYI.xlsx
+++ b/outputs/COVID-19_Trial-1_Stage-1_duplicate-secondary_Decoded_JYI.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="140">
   <si>
     <t xml:space="preserve">Exp 1 </t>
   </si>
@@ -76,6 +76,195 @@
   </si>
   <si>
     <t>exhaustive</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>15,30,32,33,35,40,</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>6,13,17,20,27,36,</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>2,10,11,13,16,26,28,30,32,33,35,</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>2,3,6,17,20,27,</t>
   </si>
   <si>
     <t>N</t>
@@ -312,7 +501,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -334,11 +523,25 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -372,6 +575,20 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -698,7 +915,7 @@
     <col min="4" max="4" width="13" bestFit="true" customWidth="true"/>
     <col min="6" max="7" width="10.5" bestFit="true" customWidth="true"/>
     <col min="11" max="11" width="8.625" style="7" customWidth="true"/>
-    <col min="12" max="12" width="17.3984375" style="7" customWidth="true"/>
+    <col min="12" max="12" width="11.625" style="7" customWidth="true"/>
     <col min="13" max="13" width="16.125" style="8" customWidth="true"/>
     <col min="14" max="14" width="15.22265625" style="8" customWidth="true"/>
     <col min="10" max="10" width="27.625" customWidth="true"/>
@@ -777,14 +994,16 @@
         <v>1</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>39</v>
+        <v>102</v>
       </c>
       <c r="K3" s="11">
+        <v>2.8327548408945739e-13</v>
+      </c>
+      <c r="L3" s="11">
         <v>8.5659226251169461e-13</v>
       </c>
-      <c r="L3" s="11"/>
       <c r="M3" s="12" t="s">
-        <v>14</v>
+        <v>77</v>
       </c>
       <c r="N3" s="12">
         <v>0</v>
@@ -800,13 +1019,16 @@
         <v>2</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>40</v>
+        <v>103</v>
       </c>
       <c r="K4" s="11">
+        <v>3.1452590056913757e-10</v>
+      </c>
+      <c r="L4" s="7">
         <v>3600.567088612313</v>
       </c>
       <c r="M4" s="12" t="s">
-        <v>14</v>
+        <v>77</v>
       </c>
       <c r="N4" s="8">
         <v>0</v>
@@ -822,14 +1044,16 @@
         <v>3</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>41</v>
+        <v>104</v>
       </c>
       <c r="K5" s="11">
+        <v>3.0112462200412679e-13</v>
+      </c>
+      <c r="L5" s="11">
         <v>2.7817775361036009e-13</v>
       </c>
-      <c r="L5" s="11"/>
       <c r="M5" s="12" t="s">
-        <v>14</v>
+        <v>77</v>
       </c>
       <c r="N5" s="8">
         <v>0</v>
@@ -845,14 +1069,16 @@
         <v>4</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>41</v>
+        <v>104</v>
       </c>
       <c r="K6" s="11">
+        <v>3.0680631149652922e-13</v>
+      </c>
+      <c r="L6" s="11">
         <v>4.0762454291123869e-13</v>
       </c>
-      <c r="L6" s="11"/>
       <c r="M6" s="12" t="s">
-        <v>14</v>
+        <v>77</v>
       </c>
       <c r="N6" s="12">
         <v>0</v>
@@ -866,14 +1092,16 @@
         <v>5</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>41</v>
+        <v>104</v>
       </c>
       <c r="K7" s="11">
+        <v>2.6564295986491696e-13</v>
+      </c>
+      <c r="L7" s="11">
         <v>3.5380707520490049e-13</v>
       </c>
-      <c r="L7" s="11"/>
       <c r="M7" s="12" t="s">
-        <v>14</v>
+        <v>77</v>
       </c>
       <c r="N7" s="12">
         <v>0</v>
@@ -889,14 +1117,16 @@
         <v>6</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>41</v>
+        <v>104</v>
       </c>
       <c r="K8" s="11">
+        <v>2.1003619306277225e-13</v>
+      </c>
+      <c r="L8" s="11">
         <v>1.600446329362164e-13</v>
       </c>
-      <c r="L8" s="11"/>
       <c r="M8" s="12" t="s">
-        <v>14</v>
+        <v>77</v>
       </c>
       <c r="N8" s="8">
         <v>0</v>
@@ -912,14 +1142,16 @@
         <v>7</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>41</v>
+        <v>104</v>
       </c>
       <c r="K9" s="11">
+        <v>1.3613161652797686e-13</v>
+      </c>
+      <c r="L9" s="11">
         <v>1.6046663974841837e-13</v>
       </c>
-      <c r="L9" s="11"/>
       <c r="M9" s="12" t="s">
-        <v>14</v>
+        <v>77</v>
       </c>
       <c r="N9" s="12">
         <v>0</v>
@@ -935,14 +1167,16 @@
         <v>8</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>41</v>
+        <v>104</v>
       </c>
       <c r="K10" s="11">
+        <v>2.4871032810403427e-13</v>
+      </c>
+      <c r="L10" s="11">
         <v>3.1944496034882083e-13</v>
       </c>
-      <c r="L10" s="11"/>
       <c r="M10" s="12" t="s">
-        <v>14</v>
+        <v>77</v>
       </c>
       <c r="N10" s="12">
         <v>0</v>
@@ -956,14 +1190,16 @@
         <v>9</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>41</v>
+        <v>104</v>
       </c>
       <c r="K11" s="11">
+        <v>2.5521551668671937e-13</v>
+      </c>
+      <c r="L11" s="11">
         <v>3.1460200513970353e-13</v>
       </c>
-      <c r="L11" s="11"/>
       <c r="M11" s="12" t="s">
-        <v>14</v>
+        <v>77</v>
       </c>
       <c r="N11" s="12">
         <v>0</v>
@@ -979,13 +1215,16 @@
         <v>10</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>42</v>
+        <v>105</v>
       </c>
       <c r="K12" s="11">
+        <v>2.4538169275658034e-10</v>
+      </c>
+      <c r="L12" s="7">
         <v>434.79630932244839</v>
       </c>
       <c r="M12" s="8" t="s">
-        <v>14</v>
+        <v>77</v>
       </c>
       <c r="N12" s="12">
         <v>0</v>
@@ -1001,13 +1240,16 @@
         <v>11</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>42</v>
+        <v>105</v>
       </c>
       <c r="K13" s="11">
+        <v>8.9594554769161624e-11</v>
+      </c>
+      <c r="L13" s="7">
         <v>434.79630934467366</v>
       </c>
       <c r="M13" s="12" t="s">
-        <v>14</v>
+        <v>77</v>
       </c>
       <c r="N13" s="12">
         <v>0</v>
@@ -1023,14 +1265,16 @@
         <v>12</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>43</v>
+        <v>106</v>
       </c>
       <c r="K14" s="11">
+        <v>8.8051477701597343e-13</v>
+      </c>
+      <c r="L14" s="11">
         <v>4.3181780431108806e-14</v>
       </c>
-      <c r="L14" s="11"/>
       <c r="M14" s="12" t="s">
-        <v>14</v>
+        <v>77</v>
       </c>
       <c r="N14" s="12">
         <v>0</v>
@@ -1044,13 +1288,16 @@
         <v>13</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>44</v>
+        <v>107</v>
       </c>
       <c r="K15" s="11">
+        <v>5.0845433700672674e-11</v>
+      </c>
+      <c r="L15" s="7">
         <v>3600.5670885991171</v>
       </c>
       <c r="M15" s="12" t="s">
-        <v>14</v>
+        <v>77</v>
       </c>
       <c r="N15" s="8">
         <v>0</v>
@@ -1066,14 +1313,16 @@
         <v>14</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>45</v>
+        <v>108</v>
       </c>
       <c r="K16" s="11">
+        <v>1.8238573135827519e-13</v>
+      </c>
+      <c r="L16" s="11">
         <v>1.6358643185609223e-13</v>
       </c>
-      <c r="L16" s="11"/>
       <c r="M16" s="12" t="s">
-        <v>14</v>
+        <v>77</v>
       </c>
       <c r="N16" s="12">
         <v>0</v>
@@ -1087,13 +1336,16 @@
         <v>15</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>46</v>
+        <v>109</v>
       </c>
       <c r="K17" s="7">
+        <v>1459166.7937527974</v>
+      </c>
+      <c r="L17" s="7">
         <v>18354129.898997303</v>
       </c>
       <c r="M17" s="8" t="s">
-        <v>15</v>
+        <v>78</v>
       </c>
       <c r="N17" s="12">
         <v>5063268.2353072511</v>
@@ -1109,13 +1361,16 @@
         <v>16</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>47</v>
+        <v>110</v>
       </c>
       <c r="K18" s="11">
+        <v>2.009198600874557e-10</v>
+      </c>
+      <c r="L18" s="7">
         <v>4025.2436895848841</v>
       </c>
       <c r="M18" s="12" t="s">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="N18" s="12">
         <v>0</v>
@@ -1133,14 +1388,16 @@
         <v>17</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>48</v>
+        <v>111</v>
       </c>
       <c r="K19" s="11">
+        <v>1.4686981349029317e-13</v>
+      </c>
+      <c r="L19" s="11">
         <v>1.9253407447799867e-13</v>
       </c>
-      <c r="L19" s="11"/>
       <c r="M19" s="12" t="s">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="N19" s="8">
         <v>0</v>
@@ -1151,14 +1408,16 @@
         <v>18</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>48</v>
+        <v>111</v>
       </c>
       <c r="K20" s="11">
+        <v>5.6316125705162113e-13</v>
+      </c>
+      <c r="L20" s="11">
         <v>4.8825797274677599e-13</v>
       </c>
-      <c r="L20" s="11"/>
       <c r="M20" s="12" t="s">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="N20" s="12">
         <v>0</v>
@@ -1169,14 +1428,16 @@
         <v>19</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>48</v>
+        <v>111</v>
       </c>
       <c r="K21" s="11">
+        <v>2.6713670404378322e-13</v>
+      </c>
+      <c r="L21" s="11">
         <v>3.6593186067734761e-13</v>
       </c>
-      <c r="L21" s="11"/>
       <c r="M21" s="12" t="s">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="N21" s="12">
         <v>0</v>
@@ -1187,14 +1448,16 @@
         <v>20</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>48</v>
+        <v>111</v>
       </c>
       <c r="K22" s="11">
+        <v>1.8709254947561437e-13</v>
+      </c>
+      <c r="L22" s="11">
         <v>1.5567031766016315e-13</v>
       </c>
-      <c r="L22" s="11"/>
       <c r="M22" s="12" t="s">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="N22" s="8">
         <v>0</v>
@@ -1205,14 +1468,16 @@
         <v>21</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>48</v>
+        <v>111</v>
       </c>
       <c r="K23" s="11">
+        <v>2.8473100029579008e-13</v>
+      </c>
+      <c r="L23" s="11">
         <v>4.2173545850027153e-13</v>
       </c>
-      <c r="L23" s="11"/>
       <c r="M23" s="12" t="s">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="N23" s="12">
         <v>0</v>
@@ -1223,14 +1488,16 @@
         <v>22</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>48</v>
+        <v>111</v>
       </c>
       <c r="K24" s="11">
+        <v>1.7659778084492708e-13</v>
+      </c>
+      <c r="L24" s="11">
         <v>1.5296503445595946e-13</v>
       </c>
-      <c r="L24" s="11"/>
       <c r="M24" s="12" t="s">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="N24" s="12">
         <v>0</v>
@@ -1241,14 +1508,16 @@
         <v>23</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>48</v>
+        <v>111</v>
       </c>
       <c r="K25" s="11">
+        <v>1.6197156807536824e-13</v>
+      </c>
+      <c r="L25" s="11">
         <v>5.4991907059751861e-13</v>
       </c>
-      <c r="L25" s="11"/>
       <c r="M25" s="12" t="s">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="N25" s="12">
         <v>0</v>
@@ -1259,14 +1528,16 @@
         <v>24</v>
       </c>
       <c r="J26" s="0" t="s">
-        <v>48</v>
+        <v>111</v>
       </c>
       <c r="K26" s="11">
+        <v>1.3442589391876798e-13</v>
+      </c>
+      <c r="L26" s="11">
         <v>1.7004285820233747e-13</v>
       </c>
-      <c r="L26" s="11"/>
       <c r="M26" s="12" t="s">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="N26" s="12">
         <v>0</v>
@@ -1277,14 +1548,16 @@
         <v>25</v>
       </c>
       <c r="J27" s="0" t="s">
-        <v>48</v>
+        <v>111</v>
       </c>
       <c r="K27" s="11">
+        <v>2.7334311446556845e-13</v>
+      </c>
+      <c r="L27" s="11">
         <v>1.6981786278665822e-14</v>
       </c>
-      <c r="L27" s="11"/>
       <c r="M27" s="12" t="s">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="N27" s="12">
         <v>0</v>
@@ -1295,13 +1568,16 @@
         <v>26</v>
       </c>
       <c r="J28" s="0" t="s">
-        <v>49</v>
+        <v>112</v>
       </c>
       <c r="K28" s="11">
+        <v>7.7574408014227799e-11</v>
+      </c>
+      <c r="L28" s="7">
         <v>434.79630935163527</v>
       </c>
       <c r="M28" s="12" t="s">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="N28" s="12">
         <v>0</v>
@@ -1312,14 +1588,16 @@
         <v>27</v>
       </c>
       <c r="J29" s="0" t="s">
-        <v>50</v>
+        <v>113</v>
       </c>
       <c r="K29" s="11">
+        <v>1.0151687079091582e-12</v>
+      </c>
+      <c r="L29" s="11">
         <v>1.7760365182000824e-13</v>
       </c>
-      <c r="L29" s="11"/>
       <c r="M29" s="12" t="s">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="N29" s="8">
         <v>0</v>
@@ -1330,13 +1608,16 @@
         <v>28</v>
       </c>
       <c r="J30" s="0" t="s">
-        <v>51</v>
+        <v>114</v>
       </c>
       <c r="K30" s="11">
+        <v>1.0213921225217977e-10</v>
+      </c>
+      <c r="L30" s="7">
         <v>4025.2436895615451</v>
       </c>
       <c r="M30" s="8" t="s">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="N30" s="12">
         <v>0</v>
@@ -1347,14 +1628,16 @@
         <v>29</v>
       </c>
       <c r="J31" s="0" t="s">
-        <v>52</v>
+        <v>115</v>
       </c>
       <c r="K31" s="11">
+        <v>3.1343998361363802e-13</v>
+      </c>
+      <c r="L31" s="11">
         <v>7.3208421125555145e-13</v>
       </c>
-      <c r="L31" s="11"/>
       <c r="M31" s="12" t="s">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="N31" s="12">
         <v>0</v>
@@ -1365,13 +1648,16 @@
         <v>30</v>
       </c>
       <c r="J32" s="0" t="s">
-        <v>53</v>
+        <v>116</v>
       </c>
       <c r="K32" s="11">
+        <v>1.7338736606294788e-10</v>
+      </c>
+      <c r="L32" s="7">
         <v>4025.2436895679998</v>
       </c>
       <c r="M32" s="12" t="s">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="N32" s="12">
         <v>0.0042370024095308711</v>
@@ -1382,14 +1668,16 @@
         <v>31</v>
       </c>
       <c r="J33" s="0" t="s">
-        <v>54</v>
+        <v>117</v>
       </c>
       <c r="K33" s="11">
+        <v>1.5406410159382618e-13</v>
+      </c>
+      <c r="L33" s="11">
         <v>1.9224909126675068e-13</v>
       </c>
-      <c r="L33" s="11"/>
       <c r="M33" s="12" t="s">
-        <v>18</v>
+        <v>81</v>
       </c>
       <c r="N33" s="12">
         <v>0</v>
@@ -1400,13 +1688,16 @@
         <v>32</v>
       </c>
       <c r="J34" s="0" t="s">
-        <v>55</v>
+        <v>118</v>
       </c>
       <c r="K34" s="11">
+        <v>6.4776858930525085e-12</v>
+      </c>
+      <c r="L34" s="7">
         <v>4025.2436895197206</v>
       </c>
       <c r="M34" s="12" t="s">
-        <v>19</v>
+        <v>82</v>
       </c>
       <c r="N34" s="12">
         <v>0.67609343919486875</v>
@@ -1417,13 +1708,16 @@
         <v>33</v>
       </c>
       <c r="J35" s="0" t="s">
-        <v>55</v>
+        <v>118</v>
       </c>
       <c r="K35" s="11">
+        <v>5.1263037761038787e-11</v>
+      </c>
+      <c r="L35" s="7">
         <v>3600.5670886465159</v>
       </c>
       <c r="M35" s="8" t="s">
-        <v>19</v>
+        <v>82</v>
       </c>
       <c r="N35" s="12">
         <v>3935.9267072346047</v>
@@ -1434,14 +1728,16 @@
         <v>34</v>
       </c>
       <c r="J36" s="0" t="s">
-        <v>56</v>
+        <v>119</v>
       </c>
       <c r="K36" s="11">
+        <v>5.2388275286375982e-13</v>
+      </c>
+      <c r="L36" s="11">
         <v>1.0682448559336435e-13</v>
       </c>
-      <c r="L36" s="11"/>
       <c r="M36" s="12" t="s">
-        <v>20</v>
+        <v>83</v>
       </c>
       <c r="N36" s="12">
         <v>0</v>
@@ -1452,13 +1748,16 @@
         <v>35</v>
       </c>
       <c r="J37" s="0" t="s">
-        <v>57</v>
+        <v>120</v>
       </c>
       <c r="K37" s="11">
+        <v>9.6024214399731268e-11</v>
+      </c>
+      <c r="L37" s="7">
         <v>434.79630936436013</v>
       </c>
       <c r="M37" s="12" t="s">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="N37" s="12">
         <v>886.45210899129006</v>
@@ -1469,14 +1768,16 @@
         <v>36</v>
       </c>
       <c r="J38" s="0" t="s">
-        <v>58</v>
+        <v>121</v>
       </c>
       <c r="K38" s="11">
+        <v>3.3500986843311463e-13</v>
+      </c>
+      <c r="L38" s="11">
         <v>5.4299675064695717e-13</v>
       </c>
-      <c r="L38" s="11"/>
       <c r="M38" s="12" t="s">
-        <v>22</v>
+        <v>85</v>
       </c>
       <c r="N38" s="8">
         <v>0</v>
@@ -1487,14 +1788,16 @@
         <v>37</v>
       </c>
       <c r="J39" s="0" t="s">
-        <v>58</v>
+        <v>121</v>
       </c>
       <c r="K39" s="11">
+        <v>1.9459171445763971e-13</v>
+      </c>
+      <c r="L39" s="11">
         <v>1.6235677398267961e-13</v>
       </c>
-      <c r="L39" s="11"/>
       <c r="M39" s="12" t="s">
-        <v>22</v>
+        <v>85</v>
       </c>
       <c r="N39" s="12">
         <v>0</v>
@@ -1512,14 +1815,16 @@
         <v>38</v>
       </c>
       <c r="J40" s="0" t="s">
-        <v>58</v>
+        <v>121</v>
       </c>
       <c r="K40" s="11">
+        <v>1.3594806183767444e-13</v>
+      </c>
+      <c r="L40" s="11">
         <v>1.521807854115385e-13</v>
       </c>
-      <c r="L40" s="11"/>
       <c r="M40" s="12" t="s">
-        <v>22</v>
+        <v>85</v>
       </c>
       <c r="N40" s="12">
         <v>0</v>
@@ -1537,14 +1842,16 @@
         <v>39</v>
       </c>
       <c r="J41" s="0" t="s">
-        <v>58</v>
+        <v>121</v>
       </c>
       <c r="K41" s="11">
+        <v>3.6270378390810211e-13</v>
+      </c>
+      <c r="L41" s="11">
         <v>3.7209480512525169e-13</v>
       </c>
-      <c r="L41" s="11"/>
       <c r="M41" s="12" t="s">
-        <v>22</v>
+        <v>85</v>
       </c>
       <c r="N41" s="12">
         <v>0</v>
@@ -1562,13 +1869,16 @@
         <v>40</v>
       </c>
       <c r="J42" s="0" t="s">
-        <v>59</v>
+        <v>122</v>
       </c>
       <c r="K42" s="11">
+        <v>11917.743108492341</v>
+      </c>
+      <c r="L42" s="7">
         <v>178213.45764733746</v>
       </c>
       <c r="M42" s="8" t="s">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="N42" s="12">
         <v>59674.118730174203</v>
@@ -1583,10 +1893,10 @@
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
       <c r="J43" s="0" t="s">
-        <v>60</v>
+        <v>123</v>
       </c>
       <c r="M43" s="8" t="s">
-        <v>24</v>
+        <v>87</v>
       </c>
     </row>
     <row r="44" x14ac:dyDescent="0.3">
@@ -1638,14 +1948,16 @@
         <v>1</v>
       </c>
       <c r="J45" s="0" t="s">
-        <v>61</v>
+        <v>124</v>
       </c>
       <c r="K45" s="11">
+        <v>3.5019363930215738e-13</v>
+      </c>
+      <c r="L45" s="11">
         <v>3.2617156212824624e-13</v>
       </c>
-      <c r="L45" s="11"/>
       <c r="M45" s="12" t="s">
-        <v>25</v>
+        <v>88</v>
       </c>
       <c r="N45" s="8">
         <v>0</v>
@@ -1661,13 +1973,16 @@
         <v>2</v>
       </c>
       <c r="J46" s="0" t="s">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="K46" s="11">
+        <v>2.9478039162414429e-10</v>
+      </c>
+      <c r="L46" s="7">
         <v>15247.710502793434</v>
       </c>
       <c r="M46" s="8" t="s">
-        <v>25</v>
+        <v>88</v>
       </c>
       <c r="N46" s="8">
         <v>0</v>
@@ -1681,13 +1996,16 @@
         <v>3</v>
       </c>
       <c r="J47" s="0" t="s">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="K47" s="11">
+        <v>6.1779973855586275e-10</v>
+      </c>
+      <c r="L47" s="7">
         <v>9518.4154950389511</v>
       </c>
       <c r="M47" s="8" t="s">
-        <v>25</v>
+        <v>88</v>
       </c>
       <c r="N47" s="8">
         <v>0</v>
@@ -1703,14 +2021,16 @@
         <v>4</v>
       </c>
       <c r="J48" s="0" t="s">
-        <v>63</v>
+        <v>126</v>
       </c>
       <c r="K48" s="11">
+        <v>3.1647462224576241e-13</v>
+      </c>
+      <c r="L48" s="11">
         <v>3.4348170733076685e-13</v>
       </c>
-      <c r="L48" s="11"/>
       <c r="M48" s="12" t="s">
-        <v>25</v>
+        <v>88</v>
       </c>
       <c r="N48" s="8">
         <v>0</v>
@@ -1726,14 +2046,16 @@
         <v>5</v>
       </c>
       <c r="J49" s="0" t="s">
-        <v>63</v>
+        <v>126</v>
       </c>
       <c r="K49" s="11">
+        <v>2.8182266120580528e-13</v>
+      </c>
+      <c r="L49" s="11">
         <v>2.7123394351086998e-13</v>
       </c>
-      <c r="L49" s="11"/>
       <c r="M49" s="12" t="s">
-        <v>25</v>
+        <v>88</v>
       </c>
       <c r="N49" s="8">
         <v>0</v>
@@ -1747,13 +2069,16 @@
         <v>6</v>
       </c>
       <c r="J50" s="0" t="s">
-        <v>64</v>
+        <v>127</v>
       </c>
       <c r="K50" s="11">
+        <v>1.379483553323944e-10</v>
+      </c>
+      <c r="L50" s="7">
         <v>9518.415494980698</v>
       </c>
       <c r="M50" s="8" t="s">
-        <v>26</v>
+        <v>89</v>
       </c>
       <c r="N50" s="8">
         <v>15874.247614912694</v>
@@ -1767,14 +2092,16 @@
         <v>7</v>
       </c>
       <c r="J51" s="0" t="s">
-        <v>65</v>
+        <v>128</v>
       </c>
       <c r="K51" s="11">
+        <v>4.1938301016853237e-13</v>
+      </c>
+      <c r="L51" s="11">
         <v>3.6083562881035923e-13</v>
       </c>
-      <c r="L51" s="11"/>
       <c r="M51" s="12" t="s">
-        <v>27</v>
+        <v>90</v>
       </c>
       <c r="N51" s="8">
         <v>0</v>
@@ -1790,14 +2117,16 @@
         <v>8</v>
       </c>
       <c r="J52" s="0" t="s">
-        <v>65</v>
+        <v>128</v>
       </c>
       <c r="K52" s="11">
+        <v>1.0375692737371355e-12</v>
+      </c>
+      <c r="L52" s="11">
         <v>9.3209166390504672e-13</v>
       </c>
-      <c r="L52" s="11"/>
       <c r="M52" s="12" t="s">
-        <v>27</v>
+        <v>90</v>
       </c>
       <c r="N52" s="8">
         <v>0</v>
@@ -1813,14 +2142,16 @@
         <v>9</v>
       </c>
       <c r="J53" s="0" t="s">
-        <v>65</v>
+        <v>128</v>
       </c>
       <c r="K53" s="11">
+        <v>2.6903325911729091e-13</v>
+      </c>
+      <c r="L53" s="11">
         <v>1.1428668699964137e-13</v>
       </c>
-      <c r="L53" s="11"/>
       <c r="M53" s="12" t="s">
-        <v>27</v>
+        <v>90</v>
       </c>
       <c r="N53" s="8">
         <v>0</v>
@@ -1834,14 +2165,16 @@
         <v>10</v>
       </c>
       <c r="J54" s="0" t="s">
-        <v>65</v>
+        <v>128</v>
       </c>
       <c r="K54" s="11">
+        <v>2.3795415709585073e-13</v>
+      </c>
+      <c r="L54" s="11">
         <v>2.4363859544298442e-13</v>
       </c>
-      <c r="L54" s="11"/>
       <c r="M54" s="12" t="s">
-        <v>27</v>
+        <v>90</v>
       </c>
       <c r="N54" s="8">
         <v>0</v>
@@ -1857,14 +2190,16 @@
         <v>11</v>
       </c>
       <c r="J55" s="0" t="s">
-        <v>65</v>
+        <v>128</v>
       </c>
       <c r="K55" s="11">
+        <v>4.5332053122202978e-13</v>
+      </c>
+      <c r="L55" s="11">
         <v>3.8702888279161927e-13</v>
       </c>
-      <c r="L55" s="11"/>
       <c r="M55" s="12" t="s">
-        <v>27</v>
+        <v>90</v>
       </c>
       <c r="N55" s="8">
         <v>0</v>
@@ -1880,14 +2215,16 @@
         <v>12</v>
       </c>
       <c r="J56" s="0" t="s">
-        <v>65</v>
+        <v>128</v>
       </c>
       <c r="K56" s="11">
+        <v>7.8543744410075232e-13</v>
+      </c>
+      <c r="L56" s="11">
         <v>6.7293331304656518e-13</v>
       </c>
-      <c r="L56" s="11"/>
       <c r="M56" s="12" t="s">
-        <v>27</v>
+        <v>90</v>
       </c>
       <c r="N56" s="8">
         <v>0</v>
@@ -1901,13 +2238,16 @@
         <v>13</v>
       </c>
       <c r="J57" s="0" t="s">
-        <v>66</v>
+        <v>129</v>
       </c>
       <c r="K57" s="11">
+        <v>91318.775854704261</v>
+      </c>
+      <c r="L57" s="7">
         <v>1963985.5542124293</v>
       </c>
       <c r="M57" s="8" t="s">
-        <v>28</v>
+        <v>91</v>
       </c>
       <c r="N57" s="8">
         <v>504594.17762152292</v>
@@ -1923,14 +2263,16 @@
         <v>14</v>
       </c>
       <c r="J58" s="0" t="s">
-        <v>67</v>
+        <v>130</v>
       </c>
       <c r="K58" s="11">
+        <v>4.1473067030742193e-13</v>
+      </c>
+      <c r="L58" s="11">
         <v>4.2715901020859238e-13</v>
       </c>
-      <c r="L58" s="11"/>
       <c r="M58" s="12" t="s">
-        <v>29</v>
+        <v>92</v>
       </c>
       <c r="N58" s="8">
         <v>0</v>
@@ -1946,14 +2288,16 @@
         <v>15</v>
       </c>
       <c r="J59" s="0" t="s">
-        <v>67</v>
+        <v>130</v>
       </c>
       <c r="K59" s="11">
+        <v>3.2577207446795497e-13</v>
+      </c>
+      <c r="L59" s="11">
         <v>3.6435476690809524e-13</v>
       </c>
-      <c r="L59" s="11"/>
       <c r="M59" s="12" t="s">
-        <v>29</v>
+        <v>92</v>
       </c>
       <c r="N59" s="8">
         <v>0</v>
@@ -1969,14 +2313,16 @@
         <v>16</v>
       </c>
       <c r="J60" s="0" t="s">
-        <v>67</v>
+        <v>130</v>
       </c>
       <c r="K60" s="11">
+        <v>4.9351011089388793e-13</v>
+      </c>
+      <c r="L60" s="11">
         <v>4.8962242380909324e-13</v>
       </c>
-      <c r="L60" s="11"/>
       <c r="M60" s="12" t="s">
-        <v>29</v>
+        <v>92</v>
       </c>
       <c r="N60" s="8">
         <v>0</v>
@@ -1994,13 +2340,16 @@
         <v>17</v>
       </c>
       <c r="J61" s="0" t="s">
-        <v>68</v>
+        <v>131</v>
       </c>
       <c r="K61" s="11">
+        <v>2.5613235117319269e-10</v>
+      </c>
+      <c r="L61" s="7">
         <v>131885.34444839912</v>
       </c>
       <c r="M61" s="8" t="s">
-        <v>30</v>
+        <v>93</v>
       </c>
       <c r="N61" s="8">
         <v>49530.32461570669</v>
@@ -2018,14 +2367,16 @@
         <v>18</v>
       </c>
       <c r="J62" s="0" t="s">
-        <v>69</v>
+        <v>132</v>
       </c>
       <c r="K62" s="11">
+        <v>4.4203785452772411e-13</v>
+      </c>
+      <c r="L62" s="11">
         <v>3.5918466077560949e-13</v>
       </c>
-      <c r="L62" s="11"/>
       <c r="M62" s="12" t="s">
-        <v>31</v>
+        <v>94</v>
       </c>
       <c r="N62" s="8">
         <v>0</v>
@@ -2043,14 +2394,16 @@
         <v>19</v>
       </c>
       <c r="J63" s="0" t="s">
-        <v>69</v>
+        <v>132</v>
       </c>
       <c r="K63" s="11">
+        <v>9.4928553682028103e-13</v>
+      </c>
+      <c r="L63" s="11">
         <v>9.5848384556065047e-13</v>
       </c>
-      <c r="L63" s="11"/>
       <c r="M63" s="12" t="s">
-        <v>31</v>
+        <v>94</v>
       </c>
       <c r="N63" s="8">
         <v>0</v>
@@ -2068,13 +2421,16 @@
         <v>20</v>
       </c>
       <c r="J64" s="0" t="s">
-        <v>70</v>
+        <v>133</v>
       </c>
       <c r="K64" s="11">
+        <v>6.8572134626674034e-10</v>
+      </c>
+      <c r="L64" s="7">
         <v>9518.4154950405318</v>
       </c>
       <c r="M64" s="8" t="s">
-        <v>32</v>
+        <v>95</v>
       </c>
       <c r="N64" s="12">
         <v>0.00026920702133550588</v>
@@ -2092,14 +2448,16 @@
         <v>21</v>
       </c>
       <c r="J65" s="0" t="s">
-        <v>71</v>
+        <v>134</v>
       </c>
       <c r="K65" s="11">
+        <v>2.7472035110669624e-13</v>
+      </c>
+      <c r="L65" s="11">
         <v>2.6254334672668488e-13</v>
       </c>
-      <c r="L65" s="11"/>
       <c r="M65" s="12" t="s">
-        <v>33</v>
+        <v>96</v>
       </c>
       <c r="N65" s="8">
         <v>0</v>
@@ -2117,14 +2475,16 @@
         <v>22</v>
       </c>
       <c r="J66" s="0" t="s">
-        <v>71</v>
+        <v>134</v>
       </c>
       <c r="K66" s="11">
+        <v>1.1699979613332134e-12</v>
+      </c>
+      <c r="L66" s="11">
         <v>1.1758032473659328e-12</v>
       </c>
-      <c r="L66" s="11"/>
       <c r="M66" s="12" t="s">
-        <v>33</v>
+        <v>96</v>
       </c>
       <c r="N66" s="8">
         <v>0</v>
@@ -2142,14 +2502,16 @@
         <v>23</v>
       </c>
       <c r="J67" s="0" t="s">
-        <v>71</v>
+        <v>134</v>
       </c>
       <c r="K67" s="11">
+        <v>4.254274549025055e-13</v>
+      </c>
+      <c r="L67" s="11">
         <v>3.2528205449668707e-13</v>
       </c>
-      <c r="L67" s="11"/>
       <c r="M67" s="12" t="s">
-        <v>33</v>
+        <v>96</v>
       </c>
       <c r="N67" s="8">
         <v>0</v>
@@ -2167,14 +2529,16 @@
         <v>24</v>
       </c>
       <c r="J68" s="0" t="s">
-        <v>71</v>
+        <v>134</v>
       </c>
       <c r="K68" s="11">
+        <v>9.0827253191488133e-13</v>
+      </c>
+      <c r="L68" s="11">
         <v>1.0171369666762214e-12</v>
       </c>
-      <c r="L68" s="11"/>
       <c r="M68" s="12" t="s">
-        <v>33</v>
+        <v>96</v>
       </c>
       <c r="N68" s="8">
         <v>0</v>
@@ -2192,14 +2556,16 @@
         <v>25</v>
       </c>
       <c r="J69" s="0" t="s">
-        <v>71</v>
+        <v>134</v>
       </c>
       <c r="K69" s="11">
+        <v>5.0479613038586527e-13</v>
+      </c>
+      <c r="L69" s="11">
         <v>4.548785605567772e-13</v>
       </c>
-      <c r="L69" s="11"/>
       <c r="M69" s="12" t="s">
-        <v>33</v>
+        <v>96</v>
       </c>
       <c r="N69" s="8">
         <v>0</v>
@@ -2217,14 +2583,16 @@
         <v>26</v>
       </c>
       <c r="J70" s="0" t="s">
-        <v>71</v>
+        <v>134</v>
       </c>
       <c r="K70" s="11">
+        <v>7.43211646384424e-13</v>
+      </c>
+      <c r="L70" s="11">
         <v>4.1775351724258947e-13</v>
       </c>
-      <c r="L70" s="11"/>
       <c r="M70" s="12" t="s">
-        <v>33</v>
+        <v>96</v>
       </c>
       <c r="N70" s="8">
         <v>0</v>
@@ -2242,13 +2610,16 @@
         <v>27</v>
       </c>
       <c r="J71" s="0" t="s">
-        <v>72</v>
+        <v>135</v>
       </c>
       <c r="K71" s="11">
+        <v>3.4994360556824244e-10</v>
+      </c>
+      <c r="L71" s="7">
         <v>131885.34444890189</v>
       </c>
       <c r="M71" s="8" t="s">
-        <v>34</v>
+        <v>97</v>
       </c>
       <c r="N71" s="8">
         <v>5.5032133083880936e-05</v>
@@ -2266,14 +2637,16 @@
         <v>28</v>
       </c>
       <c r="J72" s="0" t="s">
-        <v>73</v>
+        <v>136</v>
       </c>
       <c r="K72" s="11">
+        <v>4.8105664322093626e-13</v>
+      </c>
+      <c r="L72" s="11">
         <v>6.3007379942264341e-13</v>
       </c>
-      <c r="L72" s="11"/>
       <c r="M72" s="12" t="s">
-        <v>35</v>
+        <v>98</v>
       </c>
       <c r="N72" s="8">
         <v>0</v>
@@ -2291,14 +2664,16 @@
         <v>29</v>
       </c>
       <c r="J73" s="0" t="s">
-        <v>73</v>
+        <v>136</v>
       </c>
       <c r="K73" s="11">
+        <v>7.5887747949432415e-13</v>
+      </c>
+      <c r="L73" s="11">
         <v>1.0301463737060455e-12</v>
       </c>
-      <c r="L73" s="11"/>
       <c r="M73" s="12" t="s">
-        <v>35</v>
+        <v>98</v>
       </c>
       <c r="N73" s="8">
         <v>0</v>
@@ -2316,14 +2691,16 @@
         <v>30</v>
       </c>
       <c r="J74" s="0" t="s">
-        <v>73</v>
+        <v>136</v>
       </c>
       <c r="K74" s="11">
+        <v>4.7438446891667184e-13</v>
+      </c>
+      <c r="L74" s="11">
         <v>5.1937025443116633e-13</v>
       </c>
-      <c r="L74" s="11"/>
       <c r="M74" s="12" t="s">
-        <v>35</v>
+        <v>98</v>
       </c>
       <c r="N74" s="8">
         <v>0</v>
@@ -2341,14 +2718,16 @@
         <v>31</v>
       </c>
       <c r="J75" s="0" t="s">
-        <v>73</v>
+        <v>136</v>
       </c>
       <c r="K75" s="11">
+        <v>7.8193566309065878e-13</v>
+      </c>
+      <c r="L75" s="11">
         <v>6.8554606213501644e-13</v>
       </c>
-      <c r="L75" s="11"/>
       <c r="M75" s="12" t="s">
-        <v>35</v>
+        <v>98</v>
       </c>
       <c r="N75" s="8">
         <v>0</v>
@@ -2366,14 +2745,16 @@
         <v>32</v>
       </c>
       <c r="J76" s="0" t="s">
-        <v>73</v>
+        <v>136</v>
       </c>
       <c r="K76" s="11">
+        <v>4.9923516482603172e-13</v>
+      </c>
+      <c r="L76" s="11">
         <v>6.5774166128526359e-13</v>
       </c>
-      <c r="L76" s="11"/>
       <c r="M76" s="12" t="s">
-        <v>35</v>
+        <v>98</v>
       </c>
       <c r="N76" s="8">
         <v>0</v>
@@ -2391,14 +2772,16 @@
         <v>33</v>
       </c>
       <c r="J77" s="0" t="s">
-        <v>73</v>
+        <v>136</v>
       </c>
       <c r="K77" s="11">
+        <v>5.6424998261200289e-13</v>
+      </c>
+      <c r="L77" s="11">
         <v>1.523663577204127e-13</v>
       </c>
-      <c r="L77" s="11"/>
       <c r="M77" s="12" t="s">
-        <v>35</v>
+        <v>98</v>
       </c>
       <c r="N77" s="8">
         <v>0</v>
@@ -2416,14 +2799,16 @@
         <v>34</v>
       </c>
       <c r="J78" s="0" t="s">
-        <v>73</v>
+        <v>136</v>
       </c>
       <c r="K78" s="11">
+        <v>6.6115891806186284e-13</v>
+      </c>
+      <c r="L78" s="11">
         <v>7.9579874449715471e-13</v>
       </c>
-      <c r="L78" s="11"/>
       <c r="M78" s="12" t="s">
-        <v>35</v>
+        <v>98</v>
       </c>
       <c r="N78" s="8">
         <v>0</v>
@@ -2441,14 +2826,16 @@
         <v>35</v>
       </c>
       <c r="J79" s="0" t="s">
-        <v>73</v>
+        <v>136</v>
       </c>
       <c r="K79" s="11">
+        <v>4.5570241610873168e-13</v>
+      </c>
+      <c r="L79" s="11">
         <v>3.4932844677401742e-13</v>
       </c>
-      <c r="L79" s="11"/>
       <c r="M79" s="12" t="s">
-        <v>35</v>
+        <v>98</v>
       </c>
       <c r="N79" s="8">
         <v>0</v>
@@ -2466,13 +2853,16 @@
         <v>36</v>
       </c>
       <c r="J80" s="0" t="s">
-        <v>74</v>
+        <v>137</v>
       </c>
       <c r="K80" s="11">
+        <v>86192.115961475502</v>
+      </c>
+      <c r="L80" s="7">
         <v>2320454.0659286371</v>
       </c>
       <c r="M80" s="8" t="s">
-        <v>36</v>
+        <v>99</v>
       </c>
       <c r="N80" s="8">
         <v>627089.72146061843</v>
@@ -2490,14 +2880,16 @@
         <v>37</v>
       </c>
       <c r="J81" s="0" t="s">
-        <v>75</v>
+        <v>138</v>
       </c>
       <c r="K81" s="11">
+        <v>4.3069134752849785e-13</v>
+      </c>
+      <c r="L81" s="11">
         <v>3.3737526096565995e-13</v>
       </c>
-      <c r="L81" s="11"/>
       <c r="M81" s="12" t="s">
-        <v>37</v>
+        <v>100</v>
       </c>
       <c r="N81" s="8">
         <v>0</v>
@@ -2515,14 +2907,16 @@
         <v>38</v>
       </c>
       <c r="J82" s="0" t="s">
-        <v>75</v>
+        <v>138</v>
       </c>
       <c r="K82" s="11">
+        <v>4.9040682668934789e-13</v>
+      </c>
+      <c r="L82" s="11">
         <v>4.0859190230596777e-13</v>
       </c>
-      <c r="L82" s="11"/>
       <c r="M82" s="12" t="s">
-        <v>37</v>
+        <v>100</v>
       </c>
       <c r="N82" s="8">
         <v>0</v>
@@ -2540,14 +2934,16 @@
         <v>39</v>
       </c>
       <c r="J83" s="0" t="s">
-        <v>75</v>
+        <v>138</v>
       </c>
       <c r="K83" s="11">
+        <v>2.9021491514401724e-13</v>
+      </c>
+      <c r="L83" s="11">
         <v>3.0853985550473767e-13</v>
       </c>
-      <c r="L83" s="11"/>
       <c r="M83" s="12" t="s">
-        <v>37</v>
+        <v>100</v>
       </c>
       <c r="N83" s="8">
         <v>0</v>
@@ -2565,14 +2961,16 @@
         <v>40</v>
       </c>
       <c r="J84" s="0" t="s">
-        <v>75</v>
+        <v>138</v>
       </c>
       <c r="K84" s="11">
+        <v>2.8894141923458364e-13</v>
+      </c>
+      <c r="L84" s="11">
         <v>2.9051085625237939e-13</v>
       </c>
-      <c r="L84" s="11"/>
       <c r="M84" s="12" t="s">
-        <v>37</v>
+        <v>100</v>
       </c>
       <c r="N84" s="8">
         <v>0</v>
@@ -2587,10 +2985,10 @@
       <c r="F85" s="2"/>
       <c r="G85" s="2"/>
       <c r="J85" s="0" t="s">
-        <v>76</v>
+        <v>139</v>
       </c>
       <c r="M85" s="8" t="s">
-        <v>38</v>
+        <v>101</v>
       </c>
     </row>
     <row r="86" x14ac:dyDescent="0.3">
